--- a/Timelines.xlsx
+++ b/Timelines.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\PulibandlaL\Desktop\My work\Reports\"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3891EB9C-5257-4B8E-B2DE-18811CA9D8F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PulibandlaL\Desktop\My work\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18815708-6BA0-4D6E-A044-9437FEADE295}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" r:id="rId1" name="Basic Gantt Chart"/>
-    <sheet sheetId="4" r:id="rId2" name="Findings"/>
-    <sheet sheetId="5" r:id="rId3" name="Sheet1"/>
-    <sheet r:id="rId8" name="Table1" sheetId="6"/>
+    <sheet name="Basic Gantt Chart" sheetId="2" r:id="rId1"/>
+    <sheet name="Findings" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Table1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Table1">'Table1'!$A$1:$B$2</definedName>
+    <definedName name="Table1">Table1!$A$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>TASK NAME</t>
   </si>
@@ -277,6 +281,15 @@
   </si>
   <si>
     <t>Although the theory is clear, empirical evidence is—in general—quite limited.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Field1</t>
+  </si>
+  <si>
+    <t>hello world</t>
   </si>
 </sst>
 </file>
@@ -540,18 +553,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -583,6 +584,18 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,7 +1382,7 @@
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="104" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1456,15 +1469,15 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="30" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1562,68 +1575,68 @@
       <c r="AG5" s="2"/>
     </row>
     <row r="6" spans="1:33" ht="14.5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="32" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="31" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="32" t="s">
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="31" t="s">
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
       <c r="AG6" s="9"/>
     </row>
     <row r="7" spans="1:33" ht="14.5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1910,7 +1923,9 @@
     </row>
     <row r="16" spans="1:33" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1934,11 +1949,6 @@
     <row r="34" ht="12.5"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -1947,6 +1957,11 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G14">
     <cfRule type="top10" dxfId="1" priority="5" percent="1" rank="10"/>
@@ -2059,257 +2074,257 @@
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="36">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="30">
         <v>2015</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="30">
         <v>2016</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:16" ht="14">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="29">
         <v>43270</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="37" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="32">
         <v>17668</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="32">
         <v>16115</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="32">
         <v>11837</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="M13" s="42" t="s">
+      <c r="K13" s="27"/>
+      <c r="M13" s="36" t="s">
         <v>51</v>
       </c>
       <c r="N13">
         <v>14</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33" t="s">
+      <c r="O13" s="27"/>
+      <c r="P13" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="37" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="32">
         <v>293315</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="32">
         <v>268564</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="32">
         <v>288045</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="34">
         <v>94118</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="M14" s="42" t="s">
+      <c r="K14" s="27"/>
+      <c r="M14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="N14">
         <v>5</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33" t="s">
+      <c r="O14" s="27"/>
+      <c r="P14" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="26">
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="35">
         <v>81.900000000000006</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="35">
         <v>76</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="35">
         <v>56.7</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="37" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="36">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="30">
         <v>2015</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="30">
         <v>2016</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="2:16" ht="13">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="29">
         <v>43364</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="37" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="38">
         <v>13241</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="38">
         <v>13957</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="38">
         <v>12043</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="2:16" ht="13">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="37" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="38">
         <v>262147</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="38">
         <v>252567</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="38">
         <v>216110</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="39">
         <v>60691</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="42" t="s">
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="27">
         <v>19</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="2:16" ht="26">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="37" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31" t="s">
         <v>46</v>
       </c>
       <c r="G23">
@@ -2324,74 +2339,74 @@
       <c r="J23" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="42" t="s">
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="27">
         <v>4</v>
       </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:16" ht="13">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="29">
         <v>43364</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="33" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:16" ht="13">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45">
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39">
         <v>96470</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="42" t="s">
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="36" t="s">
         <v>51</v>
       </c>
       <c r="N30">
@@ -2399,7 +2414,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" ht="26">
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="31" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="25"/>
@@ -2408,9 +2423,9 @@
       <c r="J31" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="42" t="s">
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="36" t="s">
         <v>52</v>
       </c>
       <c r="N31">
@@ -2423,7 +2438,7 @@
       <c r="M32" s="25"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -2431,41 +2446,41 @@
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="2:14" ht="13">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="29">
         <v>43371</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="33" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" spans="2:14" ht="13">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -2473,18 +2488,18 @@
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="45">
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39">
         <v>24212</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="42" t="s">
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="36" t="s">
         <v>51</v>
       </c>
       <c r="N37">
@@ -2495,7 +2510,7 @@
       <c r="B38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="31" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="25"/>
@@ -2504,9 +2519,9 @@
       <c r="J38" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="42" t="s">
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="36" t="s">
         <v>52</v>
       </c>
       <c r="N38">
@@ -2578,30 +2593,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="34" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="34" t="inlineStr">
-        <is>
-          <t>Field1</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="34">
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
